--- a/medicine/Enfance/Kathleen_Duey/Kathleen_Duey.xlsx
+++ b/medicine/Enfance/Kathleen_Duey/Kathleen_Duey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kathleen Duey, née Kathleen Elaine Peery le 8 novembre 1950 à Sayre en Oklahoma et morte le 26 juin 2020 à Fallbrook en Californie[1], est un auteur américain de romans pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kathleen Duey, née Kathleen Elaine Peery le 8 novembre 1950 à Sayre en Oklahoma et morte le 26 juin 2020 à Fallbrook en Californie, est un auteur américain de romans pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kathleen Duey vit en Californie du Sud. 
 Les nouvelles technologies la fascinent autant que l'exploration de styles différents de littérature. Ses recherches, dédicaces et allocutions lui créent des occasions de voyager à travers les États-Unis et de par le monde. 
@@ -546,11 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Le Prix de la magie
-L'Épreuve, Castelmore, 2010 ((en) Skin Hunger, 2007)Finaliste du National Book Award
-Le Choix, Castelmore, 2011 ((en) Sacred Scars, 2009)
-Série American Diaries
-(en) Sarah Anne Hartford - Massachusetts, 1651, 1996
+          <t>Série Le Prix de la magie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Épreuve, Castelmore, 2010 ((en) Skin Hunger, 2007)Finaliste du National Book Award
+Le Choix, Castelmore, 2011 ((en) Sacred Scars, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série American Diaries</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Sarah Anne Hartford - Massachusetts, 1651, 1996
 (en) Emma Eileen Grove - Mississippi, 1865, 1996
 (en) Anisett Lundberg - California, 1851, 1996
 (en) Mary Alice Peale - Philadelphia, 1777, 1996
@@ -568,14 +621,82 @@
 (en) Nell Dunne - New York City, 1899, 2000
 (en) Francesca Vigilucci - Washington, D.C., 1913, 2000
 (en) Janey G. Blue - Pearl Harbor, 1941, 2001
-(en) Zellie Blake - Lowell, Massachusetts, 1834, 2002
-Série Alone in the Dark
-(en) Beware the Alien Invasion!, 1997
+(en) Zellie Blake - Lowell, Massachusetts, 1834, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Alone in the Dark</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Beware the Alien Invasion!, 1997
 (en) Boogeyman in the Basement!, 1997
 (en) Nowhere to Run, Nowhere to Hide!, 1997
-(en) Stay Out of the Graveyard!, 1997
-Série Survival
-Romans rédigés en collaboration avec Karen A. Bale.
+(en) Stay Out of the Graveyard!, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Survival</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Romans rédigés en collaboration avec Karen A. Bale.
 (en) Titanic - 14 avril 1912, 1998réédité sous le titre Shipwreck - The Titanic, 1912 en 1999
 (en) Earthquake - San Francisco 1906, 1998
 (en) Blizzard - Colorado 1886, 1998
@@ -588,9 +709,43 @@
 (en) Hurricane - Open Seas, 1844, 1999
 (en) Swamp - Bayou Teche, Louisiana, 1851, 1999
 (en) Hurricane - New Bedford, Massachusetts, 1784, 1999
-(en) Louisiana Hurricane, 1860, 2000
-Série Unicorn's Secret
-(en) Moonsilver, 2001
+(en) Louisiana Hurricane, 1860, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Unicorn's Secret</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Moonsilver, 2001
 (en) The Silver Thread, 2001
 (en) The Silver Bracelet, 2002
 (en) The Mountain's of the Moon, 2002
@@ -598,40 +753,286 @@
 (en) True Heart, 2003
 (en) Castle Avamir, 2003
 (en) The Journey Home, 2003
-(en) Beyond the Sunset, 2003
-Série Time Soldiers
-(en) Rex, 2002
+(en) Beyond the Sunset, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Time Soldiers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Rex, 2002
 (en) Rex 2, 2000
 (en) Patch, 2002
 (en) Arthur, 2005
 (en) Mummy, 2005
 (en) Samurai, 2006
 (en) Pony Express, 2007
-(en) Leonardo, 2008
-Série Spirit of the Cimarron
-(en) Bonita, 2002
+(en) Leonardo, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Spirit of the Cimarron</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Bonita, 2002
 (en) Esperanza, 2002
 (en) Sierra, 2002
-(en) Spirit : Stallion of the Cimarron, 2002
-Série Hoofbeats
-(en) Silence and Lily - 1773, 2007
-(en) Margret and Flynn - 1875, 2008
-Sous-série Katie et le Cheval sauvage
-Une rencontre inespérée, Flammarion-Père Castor, collection Castor Poche Cheval, 2005 ((en) Katie and the Mustang 1, 2004)Réédition française en mai 2010
+(en) Spirit : Stallion of the Cimarron, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Hoofbeats</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Silence and Lily - 1773, 2007
+(en) Margret and Flynn - 1875, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Hoofbeats</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sous-série Katie et le Cheval sauvage</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Une rencontre inespérée, Flammarion-Père Castor, collection Castor Poche Cheval, 2005 ((en) Katie and the Mustang 1, 2004)Réédition française en mai 2010
 Un voyage mouvementé, Flammarion-Père Castor, collection Castor Poche Cheval, 2005 ((en) Katie and the Mustang 2, 2004)Réédition française en mai 2010
 Un défi gagné, Flammarion-Père Castor, collection Castor Poche Cheval, 2005 ((en) Katie and the Mustang 3, 2004)
-Une nouvelle vie, Flammarion-Père Castor, collection Castor Poche Cheval, 2005 ((en) Katie and the Mustang 4, 2004)
-Sous-série Lara
-(en) Lara and the Gray Mare, 2005
+Une nouvelle vie, Flammarion-Père Castor, collection Castor Poche Cheval, 2005 ((en) Katie and the Mustang 4, 2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Hoofbeats</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sous-série Lara</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) Lara and the Gray Mare, 2005
 (en) Lara and the Moon-Colored Filly, 2005
 (en) Lara At Athenry Castle, 2005
-(en) Lara and the Silent Place, 2005
-Série My Animal Family
-(en) Leo, 2008
+(en) Lara and the Silent Place, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série My Animal Family</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) Leo, 2008
 (en) Nanug, 2008
-(en) Tahi, 2009
-Série Faeries' Promise
-(en) Silence and Stone, 2010
+(en) Tahi, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathleen_Duey</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Série Faeries' Promise</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(en) Silence and Stone, 2010
 (en) Following Magic, 2010
 (en) Wishes and Wings, 2011
 (en) The Full Moon, 2011</t>
